--- a/fixing case.xlsx
+++ b/fixing case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming Activity\Project Sampingan\Php\master-music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E18E9B73-0C6F-4683-A0B0-7F56F4676735}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF850CD8-D1CA-4305-BE5A-88B9F1CE996D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="11130" xr2:uid="{521F23E4-8154-425B-B907-4747703764C4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Case</t>
   </si>
@@ -70,7 +70,15 @@
     <t>New Feature Platform</t>
   </si>
   <si>
-    <t>Withdraw Ammount</t>
+    <t>View List, Import, Export, Add</t>
+  </si>
+  <si>
+    <t>Balance WD should show real balance 
+(4 digit decimal)</t>
+  </si>
+  <si>
+    <t>Report Channel should has own input,
+import and calculating</t>
   </si>
 </sst>
 </file>
@@ -466,17 +474,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46B9EC8-1640-4A35-A068-95655EEA1D9A}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="22.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -556,10 +564,21 @@
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="D9" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/fixing case.xlsx
+++ b/fixing case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming Activity\Project Sampingan\Php\master-music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF850CD8-D1CA-4305-BE5A-88B9F1CE996D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88504BA4-4CF3-481B-809C-3966CCD023CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="11130" xr2:uid="{521F23E4-8154-425B-B907-4747703764C4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Case</t>
   </si>
@@ -77,8 +77,13 @@
 (4 digit decimal)</t>
   </si>
   <si>
-    <t>Report Channel should has own input,
-import and calculating</t>
+    <t>Report Channel should has own table with the operations</t>
+  </si>
+  <si>
+    <t>Landing Page Footer</t>
+  </si>
+  <si>
+    <t>Platform</t>
   </si>
 </sst>
 </file>
@@ -94,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +109,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -158,6 +169,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -474,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46B9EC8-1640-4A35-A068-95655EEA1D9A}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,13 +573,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -579,6 +594,22 @@
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
